--- a/biology/Botanique/Sacciolepis/Sacciolepis.xlsx
+++ b/biology/Botanique/Sacciolepis/Sacciolepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Sacciolepis Nash est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales et tempérées chaudes, principalement d'Afrique, qui comprend environ 25 espèces.
 Ce sont des plantes herbacées, aquatiques, annuelles ou vivaces, parfois rhizomateuses, parfois stolonifères, aux tiges dressées, ou géniculées ascendantes, ou décombantes, parfois spongieuses, qui peuvent atteindre 200 cm de long, et aux inflorescences en panicules souvent contractées (spiciformes).
 Étymologie
-le nom générique « Sacciolepis » est formé de deux racines grecques, σακκιον (sakkion), petit sac, et λεπίς (lepis), écaille, en référence à la glume supérieure profondément concave et gibbeuse[2].</t>
+le nom générique « Sacciolepis » est formé de deux racines grecques, σακκιον (sakkion), petit sac, et λεπίς (lepis), écaille, en référence à la glume supérieure profondément concave et gibbeuse.</t>
         </is>
       </c>
     </row>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (3 janvier 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (3 janvier 2018) :
 Sacciolepis africana C.E.Hubb. &amp; Snowden
 Sacciolepis angustissima (Hochst. ex Steud.) Kuhlm.
 Sacciolepis arenaria Mimeur
